--- a/absensi.xlsx
+++ b/absensi.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,18 +448,775 @@
           <t>Waktu</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tanggal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fadhil</t>
+          <t>Fadhil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-14 19:43:35</t>
-        </is>
-      </c>
+          <t>2025-12-16 16:34:37</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dito</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:34:46</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:34:51</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:27:22</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:34:51</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:20:44</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:21:01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:21:16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:21:46</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:21:52</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:22:16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:22:23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:22:46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:23:02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:23:16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:23:41</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:23:46</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:32:16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:32:18</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:32:46</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:32:53</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:32:55</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:33:16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:33:27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:33:44</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:33:47</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:34:17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:34:47</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:35:17</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:35:20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:35:29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:35:48</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:35:59</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:36:18</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:36:18</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:39:44</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:39:55</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:39:58</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-16 18:40:14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:42:43</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:42:57</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:42:59</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:43:13</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:43:43</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:06</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:13</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:39</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:43</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:44:58</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:45:09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:45:13</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:45:31</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:45:39</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:45:43</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Toni</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:46:01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fadhil</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:46:09</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Alif</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-12-16 20:46:13</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
